--- a/dist/assets/BOs/Poseidon.xlsx
+++ b/dist/assets/BOs/Poseidon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AC598C-C65C-4896-8E8F-22C9C435CCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18188493-A5E0-4F0F-80F8-1EB3298FE235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
-    <t>Poseidon - Centaur + Hippeus Raid</t>
-  </si>
-  <si>
     <t>Archaic</t>
   </si>
   <si>
@@ -470,6 +467,9 @@
   </si>
   <si>
     <t>Gold vill builds temple when you have 150g, then house, then goes to favor</t>
+  </si>
+  <si>
+    <t>Centaur + Hippeus Raid</t>
   </si>
 </sst>
 </file>
@@ -838,250 +838,250 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="50.44140625" customWidth="1"/>
-    <col min="3" max="3" width="62.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="3" max="3" width="62.7109375" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="B20" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>

--- a/dist/assets/BOs/Poseidon.xlsx
+++ b/dist/assets/BOs/Poseidon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18188493-A5E0-4F0F-80F8-1EB3298FE235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C833CF-D35E-4742-923D-16FB880F7D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Archaic</t>
   </si>
@@ -470,6 +470,9 @@
   </si>
   <si>
     <t>Centaur + Hippeus Raid</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZM9suRAVsaY</t>
   </si>
 </sst>
 </file>
@@ -838,7 +841,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1076,7 +1079,9 @@
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>

--- a/dist/assets/BOs/Poseidon.xlsx
+++ b/dist/assets/BOs/Poseidon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C833CF-D35E-4742-923D-16FB880F7D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F9BCF6-BD24-45FC-8326-FC508ED8392B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,10 +469,10 @@
     <t>Gold vill builds temple when you have 150g, then house, then goes to favor</t>
   </si>
   <si>
-    <t>Centaur + Hippeus Raid</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=ZM9suRAVsaY</t>
+  </si>
+  <si>
+    <t>OUTDATED - Centaur + Hippeus Raid</t>
   </si>
 </sst>
 </file>
@@ -841,7 +841,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -854,7 +854,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>

--- a/dist/assets/BOs/Poseidon.xlsx
+++ b/dist/assets/BOs/Poseidon.xlsx
@@ -8,27 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE54E68D-83E0-4CDD-8578-AD9E5BDBE77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FE0E74-2184-40A7-A14D-406651CD9CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId1"/>
+    <sheet name="Feuil5" sheetId="6" r:id="rId2"/>
+    <sheet name="Feuil6" sheetId="7" r:id="rId3"/>
+    <sheet name="Feuil4" sheetId="8" r:id="rId4"/>
+    <sheet name="Feuil3" sheetId="4" r:id="rId5"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="116">
   <si>
     <t>Archaic</t>
   </si>
   <si>
     <t>Food / Wood / Gold / Favor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aggro Posseidon </t>
   </si>
   <si>
     <t>4 / 0 / 0 / 0</t>
@@ -221,13 +223,981 @@
   </si>
   <si>
     <t>Depending on your gameplan distribute villagers accordingly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggro Poseidon </t>
+  </si>
+  <si>
+    <t>If passive hunt, cast lure god power. If agressive hunt, lure it to your town center.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial 4 vills to Food</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>2 to Gold</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>3 to Food</t>
+  </si>
+  <si>
+    <t>Vills transition
+2 Gold villager builds Temple when enough resources, then 1 back to Gold and 1 to Temple</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 1 / 1</t>
+    </r>
+  </si>
+  <si>
+    <t>3 to Wood</t>
+  </si>
+  <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 1</t>
+    </r>
+  </si>
+  <si>
+    <t>Vills transition
+3 Food villagers to Gold
+1 Temple villager build House, back to Temple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classical </t>
+  </si>
+  <si>
+    <t>Make Atalanta</t>
+  </si>
+  <si>
+    <t>Option 1: Aggresive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you want to play agressive with cavalry, 
+build two stables and spam them. Keep sending villagers to gold after advance until you have 6, then start sending new villagers to food.
+With wood, build houses, granaries, storehouses, stables, armory... and grab pickaxe and husbandry when your economy can afford it.
+</t>
+  </si>
+  <si>
+    <t>Option 2: 2TC</t>
+  </si>
+  <si>
+    <t>If you wanna go for a 2nd tc after atalanta, then your temple villager should gather only 2 favor (for atalanta) and go back to gold
+After advance, send one more to wood (so you have 4), then keep sending the new villagers to gold until you have enough resources to take town center. Move 6-7 villagers from your gold to grab the town center.</t>
+  </si>
+  <si>
+    <t>13 pop atalanta rush - By Mosca</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">/ 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial 4 vills: 3 to Food + 1 to Gold</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 to Gold</t>
+  </si>
+  <si>
+    <t>4 to Food</t>
+  </si>
+  <si>
+    <t>7 / 2 / 1 / 1</t>
+  </si>
+  <si>
+    <t>2 to Wood</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 1</t>
+    </r>
+  </si>
+  <si>
+    <t>Vills transition
+3 Food villagers to Gold
+1 Food villager to Wood
+1 Temple villager build House, back to Temple</t>
+  </si>
+  <si>
+    <t>If you want to play agressive with cavalry, build two stables and spam them. Send two more villagers to food (so you have 5), then send villagers to gold until you have 6, then start sending new villagers to food again.
+With wood, build houses, granaries, storehouses, stables, armory... and grab pickaxe and husbandry when your economy can afford it.</t>
+  </si>
+  <si>
+    <t>If you wanna go for a 2nd tc after atalanta, then your temple villager should gather only 2 favor (for atalanta) and go back to gold.
+After advance, send one more to wood (so you have 4), then keep sending the new villagers to gold until you have enough resources to take the town center. Move 6-7 villagers from your gold to grab the town center.</t>
+  </si>
+  <si>
+    <t>12 pop atalanta rush - By Mosca</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+  </si>
+  <si>
+    <t>Vills transition
+2 Gold villager builds Temple when enough resources, then keep praying</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 2</t>
+    </r>
+  </si>
+  <si>
+    <t>Vills transition
+2 Food villagers to Gold
+2 Food villagers to Wood
+1  Food villager build House, back to Food</t>
+  </si>
+  <si>
+    <t>Make 2nd Centaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you want to play agressive with cavalry and centaurs, keep sending villagers to gold after advance until you have 5, get atalanta as soon as possible, then start sending new villagers to food. The idea here is to build everything (stable, houses, armory...) with one of your wood villagers, since you will flood a little of wood. Keep spamming centaurs and cavalry.
+With wood, build houses, granaries, storehouses, stables, armory... and grab pickaxe and husbandry when your economy can afford it.
+</t>
+  </si>
+  <si>
+    <t>If you wanna go for a 2nd tc after the second centaur, then your temple villagers should gather only 16 favor (14 for 2nd centaur and stack 2 for a future atalanta) and go back to gold.
+After advance, keep sending the new villagers to gold until you have enough resources to take town center. Move 6-7 villagers from your gold to grab the town center.</t>
+  </si>
+  <si>
+    <t>13 pop 2nd Centaur Rush - By Mosca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If passive hunt, build a granary, if agressive hunt, lure it to your town center. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Research Pickaxe</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 / 2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+  </si>
+  <si>
+    <t>Vills transition
+1 Gold villager builds Temple when enough resources, then keep praying</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 1 / 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 / 4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 4 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 1</t>
+    </r>
+  </si>
+  <si>
+    <t>Vills transition
+3 Food villagers to Gold
+1 Temple villager builds 2 House, back to Temple</t>
+  </si>
+  <si>
+    <t>Cast lure as soon as you reach the classical age (on 2nd hunt, berries or chicken).</t>
+  </si>
+  <si>
+    <t>Option 1: 2TC</t>
+  </si>
+  <si>
+    <t>Go straight to the 2nd town center, skipping atalanta.</t>
+  </si>
+  <si>
+    <t>Option 2: Hero + 2 TC</t>
+  </si>
+  <si>
+    <t>Get atalanta out to have some map control or a defensive hero to defend against your enemy's myth unit. Then, keep sending villagers to gold until you have enough to grab the 2nd town center.</t>
+  </si>
+  <si>
+    <t>Option 3: Cavalry + Atalanta</t>
+  </si>
+  <si>
+    <t>Go for cavalry spam, then get atalanta out, stables, 
+get husbandry and start spamming them. Send vills to gold until you have 6, then start sending new villagers to food.</t>
+  </si>
+  <si>
+    <t>Option 3: Eco + Late Military</t>
+  </si>
+  <si>
+    <t>Go for super late military with cavalry + archers
+ (good versus chinese in general). Get atalanta out. Get handaxe and husbandry. Build 2 stables and 2 archery ranges and start spamming them.
+Send villagers to gold until you have 6, then send to wood until you have 7. Then new villagers must go to food.</t>
+  </si>
+  <si>
+    <t>Option 4: Ares Rush</t>
+  </si>
+  <si>
+    <t>Go for an Ares rush (good vs gaia and oranos, if they have a forward gold mine). 
+Get both of your heroes out + cyclops and start attacking your enemy asap (you can cast pestilence to delay his military production and disable towers) build 1 military academy, 1 archery range and 1 stable (you want to build only a few, 4-5 hippeus - your main army composition will be hoplite/toxotes). Send villagers to gold until you have 6, then villagers to wood until you have 6/7, an extra villager to temple, then new villagers to food. 
+Add more military buildings later. You want to spend favor to get all of the ares special upgrades for hoplites and toxotes (later for hypapists), lord of horses (cavalry regeneration) if needed, and also a 2nd cyclops. 
+Give priority to the toxotes ares upgrade, get it asap. Its good to have some extra favor for an extra hydra later and also the dyonisius temple upgrade. Or nemean lion and divine blood upgrade, if you chose aphrodite.</t>
+  </si>
+  <si>
+    <t>15 pop Pickaxe + no Lure - By Mosca</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial 4 vills: 
+3 to Wood
+1 builds Dock -&gt; House -&gt; Wood</t>
+  </si>
+  <si>
+    <t>Autoqueue Fishing Ship (until 9 FS)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 4 / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>3 to Food (Boars to TC)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>1 to Wood</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 / 5 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> / 0</t>
+    </r>
+  </si>
+  <si>
+    <t>3+ / 5 / 2 / 0</t>
+  </si>
+  <si>
+    <t>x to Food until enough food to advance</t>
+  </si>
+  <si>
+    <t>Vills transition:
+once you have 150 gold, one villager build a house and the other build the temple - the temple villager should gather only 2 favor for a possible Atalanta and go back to gold</t>
+  </si>
+  <si>
+    <t>Wood villager builds 2 more docks, then back
+ to Wood</t>
+  </si>
+  <si>
+    <t>Divide your villagers between Wood and Gold in a ratio of 2:1 (example: 10 wood, 5 gold; or 12 wood 6 gold)</t>
+  </si>
+  <si>
+    <t>Research Handaxe</t>
+  </si>
+  <si>
+    <t>Split your Wood in 2 different forests for more efficiency</t>
+  </si>
+  <si>
+    <t>Standard Water - By Mosca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="37">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -351,6 +1321,127 @@
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -373,7 +1464,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -381,11 +1472,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -445,6 +1546,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -452,12 +1578,38 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -670,32 +1822,946 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4014E9-C35B-43E3-952A-CE7896B716B6}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.399999999999999">
+      <c r="A1" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="37"/>
+    </row>
+    <row r="4" spans="1:4" ht="45.6">
+      <c r="A4" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.6">
+      <c r="A5" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+    </row>
+    <row r="6" spans="1:4" ht="210.6">
+      <c r="A6" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="37"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.6">
+      <c r="A7" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.6">
+      <c r="A8" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+    </row>
+    <row r="10" spans="1:4" ht="165.6">
+      <c r="A10" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.6">
+      <c r="A11" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="37"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="31"/>
+    </row>
+    <row r="13" spans="1:4" ht="13.8">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+    </row>
+    <row r="14" spans="1:4" ht="409.6">
+      <c r="A14" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="32"/>
+    </row>
+    <row r="15" spans="1:4" ht="13.8">
+      <c r="A15" s="34"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+    </row>
+    <row r="16" spans="1:4" ht="13.8">
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+    </row>
+    <row r="17" spans="1:4" ht="13.8">
+      <c r="A17" s="36"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+    </row>
+    <row r="18" spans="1:4" ht="409.6">
+      <c r="A18" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="6"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A16:D16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F853AAC-2A3A-4F14-9C55-FCD00A8652C5}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.399999999999999">
+      <c r="A1" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="37"/>
+    </row>
+    <row r="4" spans="1:4" ht="45.6">
+      <c r="A4" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.6">
+      <c r="A5" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+    </row>
+    <row r="6" spans="1:4" ht="165.6">
+      <c r="A6" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="37"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.6">
+      <c r="A7" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.6">
+      <c r="A8" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+    </row>
+    <row r="10" spans="1:4" ht="210.6">
+      <c r="A10" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.6">
+      <c r="A11" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="37"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="31"/>
+    </row>
+    <row r="13" spans="1:4" ht="13.8">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+    </row>
+    <row r="14" spans="1:4" ht="409.6">
+      <c r="A14" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="32"/>
+    </row>
+    <row r="15" spans="1:4" ht="13.8">
+      <c r="A15" s="34"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+    </row>
+    <row r="16" spans="1:4" ht="13.8">
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+    </row>
+    <row r="17" spans="1:4" ht="13.8">
+      <c r="A17" s="36"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+    </row>
+    <row r="18" spans="1:4" ht="409.6">
+      <c r="A18" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="6"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A16:D16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7F04EC-F90F-4AFC-8CC2-A835835ED3E2}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.399999999999999">
+      <c r="A1" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="37"/>
+    </row>
+    <row r="4" spans="1:4" ht="45.6">
+      <c r="A4" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.6">
+      <c r="A5" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6">
+      <c r="A6" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="37"/>
+    </row>
+    <row r="7" spans="1:4" ht="165.6">
+      <c r="A7" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="37"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.6">
+      <c r="A8" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="37"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.6">
+      <c r="A9" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="37"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.6">
+      <c r="A10" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+    </row>
+    <row r="12" spans="1:4" ht="165.6">
+      <c r="A12" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.6">
+      <c r="A13" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+    </row>
+    <row r="14" spans="1:4" ht="19.8">
+      <c r="A14" s="37"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="31"/>
+    </row>
+    <row r="15" spans="1:4" ht="13.8">
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+    </row>
+    <row r="16" spans="1:4" ht="82.8">
+      <c r="A16" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+    </row>
+    <row r="17" spans="1:2" ht="15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" ht="289.8">
+      <c r="A18" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.8">
+      <c r="A19" s="36"/>
+    </row>
+    <row r="20" spans="1:2" ht="262.2">
+      <c r="A20" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15">
+      <c r="A21" s="6"/>
+    </row>
+    <row r="22" spans="1:2" ht="409.6">
+      <c r="A22" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="409.6">
+      <c r="A24" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A13:D13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4132CB-F836-4E06-BE13-4C0A3ECA5CEE}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.399999999999999">
+      <c r="A1" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+    </row>
+    <row r="4" spans="1:4" ht="105.6">
+      <c r="A4" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6">
+      <c r="A5" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.6">
+      <c r="A6" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="54"/>
+      <c r="D6" s="52"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.6">
+      <c r="A7" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="52"/>
+    </row>
+    <row r="8" spans="1:4" ht="330">
+      <c r="A8" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="52"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.6">
+      <c r="A9" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+    </row>
+    <row r="10" spans="1:4" ht="151.80000000000001">
+      <c r="A10" s="55"/>
+      <c r="B10" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="82.8">
+      <c r="A11" s="52"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="52"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.6">
+      <c r="A12" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D247FDB-0712-418B-BD56-D16EF1FC3F3D}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.399999999999999">
+      <c r="A1" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="37"/>
+    </row>
+    <row r="4" spans="1:4" ht="60.6">
+      <c r="A4" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.6">
+      <c r="A5" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+    </row>
+    <row r="6" spans="1:4" ht="210.6">
+      <c r="A6" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="37"/>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.6">
+      <c r="A8" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+    </row>
+    <row r="10" spans="1:4" ht="210.6">
+      <c r="A10" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.6">
+      <c r="A11" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="37"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="31"/>
+    </row>
+    <row r="13" spans="1:4" ht="13.8">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+    </row>
+    <row r="14" spans="1:4" ht="409.6">
+      <c r="A14" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="32"/>
+    </row>
+    <row r="15" spans="1:4" ht="13.8">
+      <c r="A15" s="34"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+    </row>
+    <row r="16" spans="1:4" ht="13.8">
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+    </row>
+    <row r="17" spans="1:4" ht="13.8">
+      <c r="A17" s="36"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+    </row>
+    <row r="18" spans="1:4" ht="409.6">
+      <c r="A18" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="6"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="A23" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A16:D16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB68DAE-8375-47F1-8279-01CC31D59EB6}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="29" t="s">
+    <row r="1" spans="1:4" ht="17.399999999999999">
+      <c r="A1" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+    </row>
+    <row r="3" spans="1:4" ht="13.8">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -703,176 +2769,176 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="14.25">
+    <row r="4" spans="1:4" ht="13.8">
       <c r="A4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="96.6">
+      <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="99.75">
-      <c r="A5" s="15" t="s">
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="D5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="69">
+      <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="85.5">
-      <c r="A6" s="15" t="s">
+      <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="C6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" ht="13.8">
+      <c r="A7" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="15" t="s">
-        <v>14</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="19"/>
       <c r="D7" s="18"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75">
-      <c r="A8" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75">
+    <row r="8" spans="1:4" ht="15.6">
+      <c r="A8" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.6">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="19.5">
+    <row r="10" spans="1:4" ht="19.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27.6">
+      <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.5">
-      <c r="A11" s="16" t="s">
+      <c r="B11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="15" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="13.8">
+      <c r="A12" s="12" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
-      <c r="A12" s="12" t="s">
-        <v>21</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" ht="14.25">
+    <row r="13" spans="1:4" ht="13.8">
       <c r="A13" s="9"/>
       <c r="B13" s="2"/>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:4" ht="14.25">
+    <row r="14" spans="1:4" ht="13.8">
       <c r="A14" s="9"/>
       <c r="B14" s="2"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4" ht="14.25">
+    <row r="15" spans="1:4" ht="15.6">
+      <c r="A15" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+    </row>
+    <row r="16" spans="1:4" ht="13.8">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4" ht="13.8">
       <c r="A17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="13" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="13.8">
+      <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.25">
-      <c r="A18" s="13" t="s">
+      <c r="B18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="13" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="13.8">
+      <c r="A19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.25">
-      <c r="A19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="13" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="96.6">
+      <c r="A20" s="16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="105">
-      <c r="A20" s="16" t="s">
+      <c r="C20" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>36</v>
-      </c>
       <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="31"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="5"/>

--- a/dist/assets/BOs/Poseidon.xlsx
+++ b/dist/assets/BOs/Poseidon.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FE0E74-2184-40A7-A14D-406651CD9CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A1022D-5E3E-4269-AB7F-DB5057BB54EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="3" r:id="rId1"/>
     <sheet name="Feuil5" sheetId="6" r:id="rId2"/>
     <sheet name="Feuil6" sheetId="7" r:id="rId3"/>
-    <sheet name="Feuil4" sheetId="8" r:id="rId4"/>
+    <sheet name="Feuil7" sheetId="9" r:id="rId4"/>
     <sheet name="Feuil3" sheetId="4" r:id="rId5"/>
     <sheet name="Feuil1" sheetId="2" r:id="rId6"/>
   </sheets>
@@ -225,9 +225,6 @@
     <t>Depending on your gameplan distribute villagers accordingly</t>
   </si>
   <si>
-    <t xml:space="preserve">Aggro Poseidon </t>
-  </si>
-  <si>
     <t>If passive hunt, cast lure god power. If agressive hunt, lure it to your town center.</t>
   </si>
   <si>
@@ -1173,10 +1170,6 @@
     <t>x to Food until enough food to advance</t>
   </si>
   <si>
-    <t>Vills transition:
-once you have 150 gold, one villager build a house and the other build the temple - the temple villager should gather only 2 favor for a possible Atalanta and go back to gold</t>
-  </si>
-  <si>
     <t>Wood villager builds 2 more docks, then back
  to Wood</t>
   </si>
@@ -1191,6 +1184,13 @@
   </si>
   <si>
     <t>Standard Water - By Mosca</t>
+  </si>
+  <si>
+    <t>Aggro Poseidon - by Motaba</t>
+  </si>
+  <si>
+    <t>Vills transition:
+once you have 150 gold, one villager build a house and the other build the temple - the temple villager should gather only 2 favor for a possible Hero and go back to gold</t>
   </si>
 </sst>
 </file>
@@ -1829,17 +1829,17 @@
       <selection sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6">
+    <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
@@ -1853,55 +1853,55 @@
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="37"/>
+    </row>
+    <row r="4" spans="1:4" ht="45.75">
+      <c r="A4" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="37"/>
-    </row>
-    <row r="4" spans="1:4" ht="45.6">
-      <c r="A4" s="37" t="s">
+      <c r="B4" s="38" t="s">
         <v>38</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>39</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6">
+    <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>40</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>41</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
     </row>
-    <row r="6" spans="1:4" ht="210.6">
+    <row r="6" spans="1:4" ht="210.75">
       <c r="A6" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="C6" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="D6" s="37"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
+      <c r="A7" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="37"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.6">
-      <c r="A7" s="37" t="s">
+      <c r="B7" s="37" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>46</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
     </row>
-    <row r="8" spans="1:4" ht="15.6">
+    <row r="8" spans="1:4" ht="15.75">
       <c r="A8" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="46"/>
       <c r="C8" s="46"/>
@@ -1913,19 +1913,19 @@
       <c r="C9" s="37"/>
       <c r="D9" s="37"/>
     </row>
-    <row r="10" spans="1:4" ht="165.6">
+    <row r="10" spans="1:4" ht="165.75">
       <c r="A10" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="39" t="s">
         <v>48</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>49</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6">
+    <row r="11" spans="1:4" ht="15.75">
       <c r="A11" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
@@ -1935,50 +1935,50 @@
       <c r="A12" s="37"/>
       <c r="B12" s="31"/>
       <c r="C12" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="31"/>
     </row>
-    <row r="13" spans="1:4" ht="13.8">
+    <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="27"/>
       <c r="B13" s="28"/>
       <c r="C13" s="29"/>
       <c r="D13" s="30"/>
     </row>
-    <row r="14" spans="1:4" ht="409.6">
+    <row r="14" spans="1:4" ht="409.5">
       <c r="A14" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="35" t="s">
         <v>52</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>53</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="32"/>
     </row>
-    <row r="15" spans="1:4" ht="13.8">
+    <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="34"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
     </row>
-    <row r="16" spans="1:4" ht="13.8">
+    <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="47"/>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
       <c r="D16" s="48"/>
     </row>
-    <row r="17" spans="1:4" ht="13.8">
+    <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="36"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
     </row>
-    <row r="18" spans="1:4" ht="409.6">
+    <row r="18" spans="1:4" ht="409.5">
       <c r="A18" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="36" t="s">
         <v>54</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>55</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
@@ -2019,17 +2019,17 @@
       <selection sqref="A1:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6">
+    <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
@@ -2043,55 +2043,55 @@
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="37"/>
+    </row>
+    <row r="4" spans="1:4" ht="45.75">
+      <c r="A4" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="37"/>
-    </row>
-    <row r="4" spans="1:4" ht="45.6">
-      <c r="A4" s="37" t="s">
+      <c r="B4" s="38" t="s">
         <v>38</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>39</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6">
+    <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>40</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>41</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
     </row>
-    <row r="6" spans="1:4" ht="165.6">
+    <row r="6" spans="1:4" ht="180.75">
       <c r="A6" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="39" t="s">
+      <c r="D6" s="37"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
+      <c r="A7" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="37"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.6">
-      <c r="A7" s="37" t="s">
-        <v>71</v>
-      </c>
       <c r="B7" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
     </row>
-    <row r="8" spans="1:4" ht="15.6">
+    <row r="8" spans="1:4" ht="15.75">
       <c r="A8" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="46"/>
       <c r="C8" s="46"/>
@@ -2103,19 +2103,19 @@
       <c r="C9" s="37"/>
       <c r="D9" s="37"/>
     </row>
-    <row r="10" spans="1:4" ht="210.6">
+    <row r="10" spans="1:4" ht="210.75">
       <c r="A10" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="39" t="s">
         <v>72</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>73</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6">
+    <row r="11" spans="1:4" ht="15.75">
       <c r="A11" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
@@ -2125,50 +2125,50 @@
       <c r="A12" s="37"/>
       <c r="B12" s="31"/>
       <c r="C12" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="31"/>
     </row>
-    <row r="13" spans="1:4" ht="13.8">
+    <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="27"/>
       <c r="B13" s="28"/>
       <c r="C13" s="29"/>
       <c r="D13" s="30"/>
     </row>
-    <row r="14" spans="1:4" ht="409.6">
+    <row r="14" spans="1:4" ht="409.5">
       <c r="A14" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="32"/>
     </row>
-    <row r="15" spans="1:4" ht="13.8">
+    <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="34"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
     </row>
-    <row r="16" spans="1:4" ht="13.8">
+    <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="47"/>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
       <c r="D16" s="48"/>
     </row>
-    <row r="17" spans="1:4" ht="13.8">
+    <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="36"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
     </row>
-    <row r="18" spans="1:4" ht="409.6">
+    <row r="18" spans="1:4" ht="409.5">
       <c r="A18" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
@@ -2209,17 +2209,17 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6">
+    <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
@@ -2233,77 +2233,77 @@
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="37"/>
     </row>
-    <row r="4" spans="1:4" ht="45.6">
+    <row r="4" spans="1:4" ht="45.75">
       <c r="A4" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>38</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>39</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6">
+    <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75">
+      <c r="A6" s="37" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.6">
-      <c r="A6" s="37" t="s">
-        <v>81</v>
-      </c>
       <c r="B6" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="39"/>
       <c r="D6" s="37"/>
     </row>
-    <row r="7" spans="1:4" ht="165.6">
+    <row r="7" spans="1:4" ht="180.75">
       <c r="A7" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="39" t="s">
+      <c r="D7" s="37"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="37"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.6">
-      <c r="A8" s="37" t="s">
-        <v>84</v>
-      </c>
       <c r="B8" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="37"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6">
+    <row r="9" spans="1:4" ht="15.75">
       <c r="A9" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="37"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6">
+    <row r="10" spans="1:4" ht="15.75">
       <c r="A10" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="46"/>
       <c r="C10" s="46"/>
@@ -2315,44 +2315,44 @@
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
     </row>
-    <row r="12" spans="1:4" ht="165.6">
+    <row r="12" spans="1:4" ht="165.75">
       <c r="A12" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="39" t="s">
         <v>86</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>87</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
     </row>
-    <row r="13" spans="1:4" ht="15.6">
+    <row r="13" spans="1:4" ht="15.75">
       <c r="A13" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
     </row>
-    <row r="14" spans="1:4" ht="19.8">
+    <row r="14" spans="1:4" ht="20.25">
       <c r="A14" s="37"/>
       <c r="B14" s="31"/>
       <c r="C14" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="31"/>
     </row>
-    <row r="15" spans="1:4" ht="13.8">
+    <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="27"/>
       <c r="B15" s="28"/>
       <c r="C15" s="29"/>
       <c r="D15" s="30"/>
     </row>
-    <row r="16" spans="1:4" ht="82.8">
+    <row r="16" spans="1:4" ht="85.5">
       <c r="A16" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="36" t="s">
         <v>89</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>90</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
@@ -2361,42 +2361,42 @@
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="1:2" ht="289.8">
+    <row r="18" spans="1:2" ht="299.25">
       <c r="A18" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="41" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="14.25">
+      <c r="A19" s="36"/>
+    </row>
+    <row r="20" spans="1:2" ht="299.25">
+      <c r="A20" s="36" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.8">
-      <c r="A19" s="36"/>
-    </row>
-    <row r="20" spans="1:2" ht="262.2">
-      <c r="A20" s="36" t="s">
+      <c r="B20" s="41" t="s">
         <v>93</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="6"/>
     </row>
-    <row r="22" spans="1:2" ht="409.6">
+    <row r="22" spans="1:2" ht="409.5">
       <c r="A22" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="41" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="409.5">
+      <c r="A24" s="36" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="409.6">
-      <c r="A24" s="36" t="s">
+      <c r="B24" s="41" t="s">
         <v>97</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2411,24 +2411,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4132CB-F836-4E06-BE13-4C0A3ECA5CEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5F4971-B361-4B96-91C3-91EE661AD11F}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6">
+    <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
@@ -2444,91 +2444,91 @@
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
     </row>
-    <row r="4" spans="1:4" ht="105.6">
+    <row r="4" spans="1:4" ht="120.75">
       <c r="A4" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="53" t="s">
         <v>100</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>101</v>
       </c>
       <c r="C4" s="52"/>
       <c r="D4" s="52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75">
+      <c r="A5" s="52" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.6">
-      <c r="A5" s="52" t="s">
+      <c r="B5" s="52" t="s">
         <v>103</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>104</v>
       </c>
       <c r="C5" s="52"/>
       <c r="D5" s="52"/>
     </row>
-    <row r="6" spans="1:4" ht="15.6">
+    <row r="6" spans="1:4" ht="15.75">
       <c r="A6" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="52" t="s">
         <v>105</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>106</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="52"/>
     </row>
-    <row r="7" spans="1:4" ht="15.6">
+    <row r="7" spans="1:4" ht="15.75">
       <c r="A7" s="52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="54"/>
       <c r="D7" s="52"/>
     </row>
-    <row r="8" spans="1:4" ht="330">
+    <row r="8" spans="1:4" ht="345">
       <c r="A8" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="52" t="s">
-        <v>109</v>
-      </c>
       <c r="C8" s="54" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D8" s="52"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6">
+    <row r="9" spans="1:4" ht="15.75">
       <c r="A9" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="46"/>
       <c r="C9" s="46"/>
       <c r="D9" s="46"/>
     </row>
-    <row r="10" spans="1:4" ht="151.80000000000001">
+    <row r="10" spans="1:4" ht="156.75">
       <c r="A10" s="55"/>
       <c r="B10" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="82.8">
+    </row>
+    <row r="11" spans="1:4" ht="85.5">
       <c r="A11" s="52"/>
       <c r="B11" s="55"/>
       <c r="C11" s="56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D11" s="52"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6">
+    <row r="12" spans="1:4" ht="15.75">
       <c r="A12" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="46"/>
       <c r="C12" s="46"/>
@@ -2553,17 +2553,17 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6">
+    <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
@@ -2577,55 +2577,55 @@
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="37"/>
     </row>
-    <row r="4" spans="1:4" ht="60.6">
+    <row r="4" spans="1:4" ht="60.75">
       <c r="A4" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>57</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>58</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6">
+    <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>59</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>60</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
     </row>
-    <row r="6" spans="1:4" ht="210.6">
+    <row r="6" spans="1:4" ht="210.75">
       <c r="A6" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="37"/>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="37" t="s">
         <v>62</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>63</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
     </row>
-    <row r="8" spans="1:4" ht="15.6">
+    <row r="8" spans="1:4" ht="15.75">
       <c r="A8" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="46"/>
       <c r="C8" s="46"/>
@@ -2637,19 +2637,19 @@
       <c r="C9" s="37"/>
       <c r="D9" s="37"/>
     </row>
-    <row r="10" spans="1:4" ht="210.6">
+    <row r="10" spans="1:4" ht="210.75">
       <c r="A10" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="39" t="s">
         <v>64</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>65</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6">
+    <row r="11" spans="1:4" ht="15.75">
       <c r="A11" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
@@ -2659,50 +2659,50 @@
       <c r="A12" s="37"/>
       <c r="B12" s="31"/>
       <c r="C12" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="31"/>
     </row>
-    <row r="13" spans="1:4" ht="13.8">
+    <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="27"/>
       <c r="B13" s="28"/>
       <c r="C13" s="29"/>
       <c r="D13" s="30"/>
     </row>
-    <row r="14" spans="1:4" ht="409.6">
+    <row r="14" spans="1:4" ht="409.5">
       <c r="A14" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="32"/>
     </row>
-    <row r="15" spans="1:4" ht="13.8">
+    <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="34"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
     </row>
-    <row r="16" spans="1:4" ht="13.8">
+    <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="47"/>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
       <c r="D16" s="48"/>
     </row>
-    <row r="17" spans="1:4" ht="13.8">
+    <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="36"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
     </row>
-    <row r="18" spans="1:4" ht="409.6">
+    <row r="18" spans="1:4" ht="409.5">
       <c r="A18" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
@@ -2743,17 +2743,17 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="42" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6">
+    <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
@@ -2761,7 +2761,7 @@
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
     </row>
-    <row r="3" spans="1:4" ht="13.8">
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2769,7 +2769,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="13.8">
+    <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="96.6">
+    <row r="5" spans="1:4" ht="99.75">
       <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="69">
+    <row r="6" spans="1:4" ht="85.5">
       <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="13.8">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
@@ -2817,7 +2817,7 @@
       <c r="C7" s="19"/>
       <c r="D7" s="18"/>
     </row>
-    <row r="8" spans="1:4" ht="15.6">
+    <row r="8" spans="1:4" ht="15.75">
       <c r="A8" s="50" t="s">
         <v>14</v>
       </c>
@@ -2825,17 +2825,17 @@
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6">
+    <row r="9" spans="1:4" ht="15.75">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="19.2">
+    <row r="10" spans="1:4" ht="19.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27.6">
+    <row r="11" spans="1:4" ht="28.5">
       <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.8">
+    <row r="12" spans="1:4" ht="15">
       <c r="A12" s="12" t="s">
         <v>20</v>
       </c>
@@ -2859,18 +2859,18 @@
       </c>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" ht="13.8">
+    <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="9"/>
       <c r="B13" s="2"/>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:4" ht="13.8">
+    <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="9"/>
       <c r="B14" s="2"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:4" ht="15.6">
+    <row r="15" spans="1:4" ht="15.75">
       <c r="A15" s="50" t="s">
         <v>22</v>
       </c>
@@ -2878,12 +2878,12 @@
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
     </row>
-    <row r="16" spans="1:4" ht="13.8">
+    <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.8">
+    <row r="17" spans="1:4" ht="15">
       <c r="A17" s="9" t="s">
         <v>23</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.8">
+    <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="13.8">
+    <row r="19" spans="1:4" ht="14.25">
       <c r="A19" s="9" t="s">
         <v>27</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="96.6">
+    <row r="20" spans="1:4" ht="105">
       <c r="A20" s="16" t="s">
         <v>34</v>
       </c>
